--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf17.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf17.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H2">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N2">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.05786404228533334</v>
+        <v>0.002557906271</v>
       </c>
       <c r="R2">
-        <v>0.520776380568</v>
+        <v>0.023021156439</v>
       </c>
       <c r="S2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="T2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.345897</v>
       </c>
       <c r="I3">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J3">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N3">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.012970407273</v>
+        <v>0.000335865987</v>
       </c>
       <c r="R3">
-        <v>0.116733665457</v>
+        <v>0.003022793883</v>
       </c>
       <c r="S3">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="T3">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H4">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I4">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J4">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N4">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4786995119732221</v>
+        <v>0.010256052531</v>
       </c>
       <c r="R4">
-        <v>4.308295607759</v>
+        <v>0.092304472779</v>
       </c>
       <c r="S4">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="T4">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H5">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I5">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J5">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N5">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.01342506917577778</v>
+        <v>0.0001351632</v>
       </c>
       <c r="R5">
-        <v>0.120825622582</v>
+        <v>0.0012164688</v>
       </c>
       <c r="S5">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="T5">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H6">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I6">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J6">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N6">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1212220502633333</v>
+        <v>0.00119721387</v>
       </c>
       <c r="R6">
-        <v>1.09099845237</v>
+        <v>0.01077492483</v>
       </c>
       <c r="S6">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="T6">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H7">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I7">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J7">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N7">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.3105114683702222</v>
+        <v>0.01083270904</v>
       </c>
       <c r="R7">
-        <v>2.794603215331999</v>
+        <v>0.09749438136000001</v>
       </c>
       <c r="S7">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="T7">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
     </row>
   </sheetData>
